--- a/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
+++ b/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
   <si>
     <t>土地坐落</t>
   </si>
@@ -240,7 +240,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中國鋼鐵股份有限公司</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1374,13 +1386,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1399,13 +1411,22 @@
       <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1421,6 +1442,15 @@
       </c>
       <c r="G2" s="2">
         <v>140060</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1750</v>
       </c>
     </row>
   </sheetData>
@@ -1438,22 +1468,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
@@ -1464,13 +1494,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>944.584</v>
@@ -1490,13 +1520,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>250.627</v>
@@ -1516,13 +1546,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>63.44</v>
@@ -1542,13 +1572,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
         <v>14781</v>
@@ -1568,13 +1598,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>219.907</v>
@@ -1594,13 +1624,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2">
         <v>151.42</v>

--- a/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
+++ b/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>土地坐落</t>
   </si>
@@ -240,6 +240,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -250,6 +253,9 @@
   </si>
   <si>
     <t>中國鋼鐵股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-27</t>
@@ -1386,13 +1392,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1420,13 +1426,16 @@
       <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1444,12 +1453,15 @@
         <v>140060</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1750</v>
       </c>
     </row>
@@ -1468,22 +1480,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
@@ -1494,13 +1506,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>944.584</v>
@@ -1520,13 +1532,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>250.627</v>
@@ -1546,13 +1558,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>63.44</v>
@@ -1572,13 +1584,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2">
         <v>14781</v>
@@ -1598,13 +1610,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2">
         <v>219.907</v>
@@ -1624,13 +1636,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>151.42</v>

--- a/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
+++ b/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
   <si>
     <t>土地坐落</t>
   </si>
@@ -243,6 +243,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -252,13 +255,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中國鋼鐵股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp1dd71</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1392,13 +1407,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1429,13 +1444,22 @@
       <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1453,16 +1477,25 @@
         <v>140060</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1750</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1480,22 +1513,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
@@ -1506,13 +1539,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>944.584</v>
@@ -1532,13 +1565,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>250.627</v>
@@ -1558,13 +1591,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>63.44</v>
@@ -1584,13 +1617,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2">
         <v>14781</v>
@@ -1610,13 +1643,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2">
         <v>219.907</v>
@@ -1636,13 +1669,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2">
         <v>151.42</v>

--- a/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
+++ b/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
@@ -19,9 +19,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="101">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區七老爺段一甲小段14030007地號</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區七老爺段一甲小段14030013地號</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區五甲段24360000地號</t>
+  </si>
+  <si>
+    <t>10分之1</t>
+  </si>
+  <si>
+    <t>10000分之276</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>許智傑</t>
+  </si>
+  <si>
+    <t>周桂香</t>
+  </si>
+  <si>
+    <t>83年01月01日</t>
+  </si>
+  <si>
+    <t>83年01月01曰</t>
+  </si>
+  <si>
+    <t>99年01月01日</t>
+  </si>
+  <si>
+    <t>101年03月22曰</t>
+  </si>
+  <si>
+    <t>(買屋)</t>
+  </si>
+  <si>
+    <t>(買屋）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>1560000(與建物合併計算）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp1dd71</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,82 +144,31 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市鳳山區七老爺段一甲小 段1403-0007地號</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區七老爺段一甲小 段1403-0013地號</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區五甲段2436-0000 地號</t>
-  </si>
-  <si>
-    <t>10分之1</t>
-  </si>
-  <si>
-    <t>10000分之 276</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>許智傑</t>
-  </si>
-  <si>
-    <t>周桂香</t>
-  </si>
-  <si>
-    <t>83年01月 01日</t>
-  </si>
-  <si>
-    <t>83年01月 01曰</t>
-  </si>
-  <si>
-    <t>99年01月 01日</t>
-  </si>
-  <si>
-    <t>101 年 03 月22曰</t>
-  </si>
-  <si>
-    <t>(買屋)</t>
-  </si>
-  <si>
-    <t>(買屋）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>1，560，000(與 建物合併計 算）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區七老爺段一甲小 段04262-000建號</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區七老爺段一甲小 段04267-000建號</t>
-  </si>
-  <si>
-    <t>高雄市前金區文東段00999-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區五甲段07092-000 建號</t>
-  </si>
-  <si>
-    <t>99年01月 01曰</t>
-  </si>
-  <si>
-    <t>101 年 03 月22日</t>
-  </si>
-  <si>
-    <t>(買預售 屋）</t>
-  </si>
-  <si>
-    <t>1,560,000(^1 土地合併計 算）</t>
-  </si>
-  <si>
-    <t>1，000,000(未 登記所有權）</t>
+    <t>高雄市鳳山區七老爺段一甲小段04262000建號</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區七老爺段一甲小段04267000建號</t>
+  </si>
+  <si>
+    <t>高雄市前金區文東段00999000建號</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區五甲段07092000建號</t>
+  </si>
+  <si>
+    <t>99年01月01曰</t>
+  </si>
+  <si>
+    <t>101年03月22日</t>
+  </si>
+  <si>
+    <t>(買預售屋）</t>
+  </si>
+  <si>
+    <t>1560000(1土地合併計算）</t>
+  </si>
+  <si>
+    <t>1000000(未登記所有權）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -132,7 +183,7 @@
     <t>曰產</t>
   </si>
   <si>
-    <t>92年10月 15曰</t>
+    <t>92年10月15曰</t>
   </si>
   <si>
     <t>買賣</t>
@@ -156,36 +207,33 @@
     <t>大眾商業銀行高雄分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行五甲分 行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行鳳山分 行</t>
-  </si>
-  <si>
-    <t>鳳山一甲郵局（第13支 局）</t>
+    <t>中國信託商業銀行五甲分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行鳳山分行</t>
+  </si>
+  <si>
+    <t>鳳山一甲郵局（第13支局）</t>
   </si>
   <si>
     <t>臺灣銀行五甲分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行五甲分 行</t>
+    <t>合作金庫商業銀行五甲分行</t>
   </si>
   <si>
     <t>元大商業銀行鳳山分行</t>
   </si>
   <si>
-    <t>高雄縣鳳山市農會五甲分 部</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行鳳山分 行</t>
+    <t>高雄縣鳳山市農會五甲分部</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行鳳山分行</t>
   </si>
   <si>
     <t>臺灣土地銀行五甲分行</t>
   </si>
   <si>
-    <t>鳳山一甲郵局（第1 3支 局）</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
@@ -201,31 +249,25 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1,002.70</t>
+    <t>1002.70</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>29,479.38</t>
-  </si>
-  <si>
-    <t>5,933.80</t>
-  </si>
-  <si>
-    <t>256,162.20</t>
-  </si>
-  <si>
-    <t>2,700,000</t>
-  </si>
-  <si>
-    <t>丨 12,750</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>29479.38</t>
+  </si>
+  <si>
+    <t>5933.80</t>
+  </si>
+  <si>
+    <t>256162.20</t>
+  </si>
+  <si>
+    <t>2700000</t>
+  </si>
+  <si>
+    <t>丨12750</t>
   </si>
   <si>
     <t>quantity</t>
@@ -240,42 +282,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中國鋼鐵股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-27</t>
-  </si>
-  <si>
-    <t>tmp1dd71</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -291,10 +303,10 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>Asian improvement</t>
-  </si>
-  <si>
-    <t>Shen China</t>
+    <t>Asianimprovement</t>
+  </si>
+  <si>
+    <t>ShenChina</t>
   </si>
   <si>
     <t>亞太成長基金</t>
@@ -668,13 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,135 +708,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>211</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>434</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>434</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2">
         <v>12500000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -842,25 +980,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -868,25 +1006,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>72.8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -894,25 +1032,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>72.8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -920,25 +1058,25 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>127.54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -946,22 +1084,22 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>36.43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
         <v>12500000</v>
@@ -982,22 +1120,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1005,22 +1143,22 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1038,22 +1176,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1061,22 +1199,22 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1084,22 +1222,22 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>201.83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1107,22 +1245,22 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>8713</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1130,20 +1268,20 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1151,16 +1289,16 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1172,16 +1310,16 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1193,16 +1331,16 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1214,16 +1352,16 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1235,16 +1373,16 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1256,16 +1394,16 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1277,16 +1415,16 @@
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1298,16 +1436,16 @@
         <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1319,16 +1457,16 @@
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1340,16 +1478,16 @@
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1361,22 +1499,22 @@
         <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1384,16 +1522,16 @@
         <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1415,43 +1553,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1459,10 +1597,10 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>14006</v>
@@ -1471,28 +1609,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
         <v>140060</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>1750</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
         <v>75</v>
@@ -1513,25 +1651,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1539,13 +1677,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>944.584</v>
@@ -1554,7 +1692,7 @@
         <v>15.88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2">
         <v>440999.82</v>
@@ -1565,13 +1703,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>250.627</v>
@@ -1580,7 +1718,7 @@
         <v>59.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2">
         <v>439306.02</v>
@@ -1591,13 +1729,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>63.44</v>
@@ -1606,7 +1744,7 @@
         <v>5308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2">
         <v>9900141.89</v>
@@ -1617,13 +1755,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>14781</v>
@@ -1632,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H5" s="2">
         <v>147810</v>
@@ -1643,13 +1781,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
         <v>219.907</v>
@@ -1658,7 +1796,7 @@
         <v>22.33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2">
         <v>144369.39</v>
@@ -1669,13 +1807,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>151.42</v>
@@ -1684,7 +1822,7 @@
         <v>20.66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2">
         <v>91973.11</v>

--- a/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
+++ b/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -63,21 +63,27 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區七老爺段一甲小段14030013地號</t>
+  </si>
+  <si>
     <t>高雄市鳳山區七老爺段一甲小段14030007地號</t>
   </si>
   <si>
-    <t>高雄市鳳山區七老爺段一甲小段14030013地號</t>
-  </si>
-  <si>
     <t>高雄市鳳山區五甲段24360000地號</t>
   </si>
   <si>
+    <t>10000分之276</t>
+  </si>
+  <si>
     <t>10分之1</t>
   </si>
   <si>
-    <t>10000分之276</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -87,66 +93,45 @@
     <t>周桂香</t>
   </si>
   <si>
+    <t>83年01月01曰</t>
+  </si>
+  <si>
+    <t>99年01月01日</t>
+  </si>
+  <si>
+    <t>101年03月22曰</t>
+  </si>
+  <si>
+    <t>(買屋)</t>
+  </si>
+  <si>
+    <t>(買屋）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>1560000(與建物合併計算）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp1dd71</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區七老爺段一甲小段04262000建號</t>
+  </si>
+  <si>
     <t>83年01月01日</t>
   </si>
   <si>
-    <t>83年01月01曰</t>
-  </si>
-  <si>
-    <t>99年01月01日</t>
-  </si>
-  <si>
-    <t>101年03月22曰</t>
-  </si>
-  <si>
-    <t>(買屋)</t>
-  </si>
-  <si>
-    <t>(買屋）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>1560000(與建物合併計算）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-27</t>
-  </si>
-  <si>
-    <t>tmp1dd71</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區七老爺段一甲小段04262000建號</t>
-  </si>
-  <si>
     <t>高雄市鳳山區七老爺段一甲小段04267000建號</t>
   </si>
   <si>
@@ -171,15 +156,6 @@
     <t>1000000(未登記所有權）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>曰產</t>
   </si>
   <si>
@@ -189,24 +165,21 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>大眾商業銀行高雄分行</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>1002.70</t>
+  </si>
+  <si>
+    <t>29479.38</t>
+  </si>
+  <si>
     <t>中國信託商業銀行五甲分行</t>
   </si>
   <si>
@@ -234,30 +207,18 @@
     <t>臺灣土地銀行五甲分行</t>
   </si>
   <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>美金</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1002.70</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>29479.38</t>
-  </si>
-  <si>
     <t>5933.80</t>
   </si>
   <si>
@@ -279,33 +240,12 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>中國鋼鐵股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>Asianimprovement</t>
   </si>
   <si>
+    <t>大眾</t>
+  </si>
+  <si>
     <t>ShenChina</t>
   </si>
   <si>
@@ -316,9 +256,6 @@
   </si>
   <si>
     <t>富達新興市場</t>
-  </si>
-  <si>
-    <t>大眾</t>
   </si>
   <si>
     <t>元大</t>
@@ -680,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,240 +666,223 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>211</v>
+        <v>434</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>1750</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0276</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>11.9784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>211</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>434</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>1750</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>434</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>211</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>1750</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0276</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>11.9784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>434</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
+      <c r="H5" s="2">
+        <v>12500000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2">
         <v>1750</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>74</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2">
-        <v>12500000</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1750</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +892,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -980,128 +900,102 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C1" s="1">
+        <v>72.8</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>72.8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2">
+        <v>127.54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2">
-        <v>72.8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
-        <v>127.54</v>
+        <v>36.43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>36.43</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2">
         <v>12500000</v>
       </c>
     </row>
@@ -1112,7 +1006,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,421 +1047,342 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2">
-        <v>1998</v>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="F2" s="2">
+        <v>201.83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>201.83</v>
+        <v>8713</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8713</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>81</v>
+      <c r="G5" s="2">
+        <v>55382</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>55382</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>290000</v>
+        <v>25598</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>25598</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>12034</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>729</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>140</v>
+        <v>88478</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>88478</v>
+        <v>15590</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>15590</v>
+        <v>24332</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>24332</v>
+        <v>665620</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>665620</v>
+      <c r="G15" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>68</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
         <v>2899955</v>
       </c>
     </row>
@@ -1545,13 +1393,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1559,16 +1407,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1590,50 +1438,6 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2">
-        <v>14006</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="2">
-        <v>140060</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1750</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1447,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1651,180 +1455,154 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
+      </c>
+      <c r="E1" s="1">
+        <v>944.584</v>
+      </c>
+      <c r="F1" s="1">
+        <v>15.88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="H1" s="1">
+        <v>440999.82</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
-        <v>944.584</v>
+        <v>250.627</v>
       </c>
       <c r="F2" s="2">
-        <v>15.88</v>
+        <v>59.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
-        <v>440999.82</v>
+        <v>439306.02</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
-        <v>250.627</v>
+        <v>63.44</v>
       </c>
       <c r="F3" s="2">
-        <v>59.62</v>
+        <v>5308</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
-        <v>439306.02</v>
+        <v>9900141.89</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
-        <v>63.44</v>
+        <v>14781</v>
       </c>
       <c r="F4" s="2">
-        <v>5308</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2">
-        <v>9900141.89</v>
+        <v>147810</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
-        <v>14781</v>
+        <v>219.907</v>
       </c>
       <c r="F5" s="2">
-        <v>10</v>
+        <v>22.33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
-        <v>147810</v>
+        <v>144369.39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
-        <v>219.907</v>
+        <v>151.42</v>
       </c>
       <c r="F6" s="2">
-        <v>22.33</v>
+        <v>20.66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
-        <v>144369.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>90</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="2">
-        <v>151.42</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20.66</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="2">
         <v>91973.11</v>
       </c>
     </row>

--- a/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
+++ b/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -69,21 +69,21 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市鳳山區七老爺段一甲小段14030007地號</t>
+  </si>
+  <si>
     <t>高雄市鳳山區七老爺段一甲小段14030013地號</t>
   </si>
   <si>
-    <t>高雄市鳳山區七老爺段一甲小段14030007地號</t>
-  </si>
-  <si>
     <t>高雄市鳳山區五甲段24360000地號</t>
   </si>
   <si>
+    <t>10分之1</t>
+  </si>
+  <si>
     <t>10000分之276</t>
   </si>
   <si>
-    <t>10分之1</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -93,6 +93,9 @@
     <t>周桂香</t>
   </si>
   <si>
+    <t>83年01月01日</t>
+  </si>
+  <si>
     <t>83年01月01曰</t>
   </si>
   <si>
@@ -129,9 +132,6 @@
     <t>高雄市鳳山區七老爺段一甲小段04262000建號</t>
   </si>
   <si>
-    <t>83年01月01日</t>
-  </si>
-  <si>
     <t>高雄市鳳山區七老爺段一甲小段04267000建號</t>
   </si>
   <si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>中國鋼鐵股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>Asianimprovement</t>
@@ -617,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,13 +681,13 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>434</v>
+        <v>211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -693,19 +699,19 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>22</v>
@@ -714,51 +720,51 @@
         <v>1750</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0276</v>
+        <v>0.1</v>
       </c>
       <c r="Q2" s="2">
-        <v>11.9784</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>211</v>
+        <v>434</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>22</v>
@@ -767,27 +773,27 @@
         <v>1750</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.1</v>
+        <v>0.0276</v>
       </c>
       <c r="Q3" s="2">
-        <v>21.1</v>
+        <v>11.9784</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>434</v>
+        <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -796,22 +802,22 @@
         <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>22</v>
@@ -820,51 +826,51 @@
         <v>1750</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0276</v>
+        <v>0.1</v>
       </c>
       <c r="Q4" s="2">
-        <v>11.9784</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2">
-        <v>12500000</v>
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>22</v>
@@ -873,15 +879,68 @@
         <v>1750</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0276</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>11.9784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12500000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="2">
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>74</v>
       </c>
     </row>
@@ -892,41 +951,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1">
-        <v>72.8</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>72.8</v>
@@ -935,27 +1021,54 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
-        <v>127.54</v>
+        <v>72.8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -964,39 +1077,146 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>26</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>36.43</v>
+        <v>127.54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="M4" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>127.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>36.43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2">
         <v>12500000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>36.43</v>
       </c>
     </row>
   </sheetData>
@@ -1006,13 +1226,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1029,7 +1249,30 @@
         <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1067,10 +1310,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1081,19 +1324,19 @@
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2">
-        <v>201.83</v>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1105,36 +1348,38 @@
         <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>8713</v>
+        <v>201.83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>8713</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>55</v>
@@ -1149,16 +1394,16 @@
         <v>23</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>55382</v>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
@@ -1171,18 +1416,18 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>290000</v>
+        <v>55382</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>64</v>
@@ -1192,15 +1437,15 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>25598</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>63</v>
@@ -1213,15 +1458,15 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>12034</v>
+        <v>25598</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>63</v>
@@ -1234,15 +1479,15 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>729</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
@@ -1255,15 +1500,15 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>140</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>63</v>
@@ -1276,15 +1521,15 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>88478</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>63</v>
@@ -1297,15 +1542,15 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>15590</v>
+        <v>88478</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>63</v>
@@ -1314,19 +1559,19 @@
         <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>24332</v>
+        <v>15590</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>63</v>
@@ -1339,15 +1584,15 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>665620</v>
+        <v>24332</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>63</v>
@@ -1358,19 +1603,17 @@
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>69</v>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>665620</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>63</v>
@@ -1381,8 +1624,31 @@
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>2899955</v>
       </c>
     </row>
@@ -1393,13 +1659,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,6 +1704,50 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14006</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2">
+        <v>140060</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1455,13 +1765,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>944.584</v>
@@ -1478,33 +1788,33 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
-        <v>250.627</v>
+        <v>944.584</v>
       </c>
       <c r="F2" s="2">
-        <v>59.62</v>
+        <v>15.88</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="2">
-        <v>439306.02</v>
+        <v>440999.82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>75</v>
@@ -1513,96 +1823,122 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
-        <v>63.44</v>
+        <v>250.627</v>
       </c>
       <c r="F3" s="2">
-        <v>5308</v>
+        <v>59.62</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="2">
-        <v>9900141.89</v>
+        <v>439306.02</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="2">
-        <v>14781</v>
+        <v>63.44</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>5308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
-        <v>147810</v>
+        <v>9900141.89</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
-        <v>219.907</v>
+        <v>14781</v>
       </c>
       <c r="F5" s="2">
-        <v>22.33</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2">
-        <v>144369.39</v>
+        <v>147810</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2">
-        <v>151.42</v>
+        <v>219.907</v>
       </c>
       <c r="F6" s="2">
-        <v>20.66</v>
+        <v>22.33</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="2">
+        <v>144369.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="2">
+        <v>151.42</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20.66</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
         <v>91973.11</v>
       </c>
     </row>

--- a/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
+++ b/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>1000000(未登記所有權）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>曰產</t>
@@ -1226,38 +1229,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1266,13 +1290,34 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1290,22 +1335,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1313,22 +1358,22 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1336,13 +1381,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1351,7 +1396,7 @@
         <v>201.83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1359,13 +1404,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1374,7 +1419,7 @@
         <v>8713</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1382,20 +1427,20 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1403,13 +1448,13 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1424,13 +1469,13 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1445,13 +1490,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1466,13 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1487,13 +1532,13 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1508,13 +1553,13 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1529,13 +1574,13 @@
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1550,13 +1595,13 @@
         <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1571,13 +1616,13 @@
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -1592,13 +1637,13 @@
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -1613,22 +1658,22 @@
         <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1636,13 +1681,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -1673,13 +1718,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1711,7 +1756,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1723,13 +1768,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>140060</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1765,13 +1810,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1">
         <v>944.584</v>
@@ -1780,7 +1825,7 @@
         <v>15.88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1">
         <v>440999.82</v>
@@ -1791,13 +1836,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>944.584</v>
@@ -1806,7 +1851,7 @@
         <v>15.88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2">
         <v>440999.82</v>
@@ -1817,13 +1862,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>250.627</v>
@@ -1832,7 +1877,7 @@
         <v>59.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2">
         <v>439306.02</v>
@@ -1843,13 +1888,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>63.44</v>
@@ -1858,7 +1903,7 @@
         <v>5308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2">
         <v>9900141.89</v>
@@ -1869,13 +1914,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2">
         <v>14781</v>
@@ -1884,7 +1929,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2">
         <v>147810</v>
@@ -1895,13 +1940,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>219.907</v>
@@ -1910,7 +1955,7 @@
         <v>22.33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2">
         <v>144369.39</v>
@@ -1921,13 +1966,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <v>151.42</v>
@@ -1936,7 +1981,7 @@
         <v>20.66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2">
         <v>91973.11</v>

--- a/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
+++ b/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -156,6 +156,9 @@
     <t>1000000(未登記所有權）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
   </si>
   <si>
     <t>買賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>大眾商業銀行高雄分行</t>
@@ -1036,7 +1042,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1089,7 +1095,7 @@
         <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1142,7 +1148,7 @@
         <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>33</v>
@@ -1195,7 +1201,7 @@
         <v>12500000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>33</v>
@@ -1240,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1281,7 +1287,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1290,16 +1296,16 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1335,22 +1341,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1358,22 +1364,22 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1381,13 +1387,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1396,7 +1402,7 @@
         <v>201.83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1404,13 +1410,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1419,7 +1425,7 @@
         <v>8713</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1427,20 +1433,20 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1448,13 +1454,13 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1469,13 +1475,13 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1490,13 +1496,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1511,13 +1517,13 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1532,13 +1538,13 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1553,13 +1559,13 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1574,13 +1580,13 @@
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1595,13 +1601,13 @@
         <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1616,13 +1622,13 @@
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -1637,13 +1643,13 @@
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -1658,22 +1664,22 @@
         <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1681,13 +1687,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -1718,13 +1724,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1756,7 +1762,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1768,13 +1774,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>140060</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1810,13 +1816,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>944.584</v>
@@ -1825,7 +1831,7 @@
         <v>15.88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1">
         <v>440999.82</v>
@@ -1836,13 +1842,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>944.584</v>
@@ -1851,7 +1857,7 @@
         <v>15.88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
         <v>440999.82</v>
@@ -1862,13 +1868,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>250.627</v>
@@ -1877,7 +1883,7 @@
         <v>59.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2">
         <v>439306.02</v>
@@ -1888,13 +1894,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>63.44</v>
@@ -1903,7 +1909,7 @@
         <v>5308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
         <v>9900141.89</v>
@@ -1914,13 +1920,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>14781</v>
@@ -1929,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2">
         <v>147810</v>
@@ -1940,13 +1946,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2">
         <v>219.907</v>
@@ -1955,7 +1961,7 @@
         <v>22.33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2">
         <v>144369.39</v>
@@ -1966,13 +1972,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
         <v>151.42</v>
@@ -1981,7 +1987,7 @@
         <v>20.66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2">
         <v>91973.11</v>

--- a/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
+++ b/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -174,79 +174,67 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>大眾商業銀行高雄分行</t>
   </si>
   <si>
+    <t>中國信託商業銀行五甲分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行鳳山分行</t>
+  </si>
+  <si>
+    <t>鳳山一甲郵局（第13支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行五甲分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行五甲分行</t>
+  </si>
+  <si>
+    <t>元大商業銀行鳳山分行</t>
+  </si>
+  <si>
+    <t>高雄縣鳳山市農會五甲分部</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行鳳山分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行五甲分行</t>
+  </si>
+  <si>
     <t>支票存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>1002.70</t>
-  </si>
-  <si>
-    <t>29479.38</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行五甲分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行鳳山分行</t>
-  </si>
-  <si>
-    <t>鳳山一甲郵局（第13支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行五甲分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行五甲分行</t>
-  </si>
-  <si>
-    <t>元大商業銀行鳳山分行</t>
-  </si>
-  <si>
-    <t>高雄縣鳳山市農會五甲分部</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行鳳山分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行五甲分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>5933.80</t>
-  </si>
-  <si>
-    <t>256162.20</t>
-  </si>
-  <si>
-    <t>2700000</t>
-  </si>
-  <si>
-    <t>丨12750</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中國鋼鐵股份有限公司</t>
@@ -1333,13 +1321,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1350,357 +1338,687 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2">
+        <v>29479.38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>201.83</v>
+        <v>5933.8</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="2">
-        <v>8713</v>
+        <v>256162.2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>2700000</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>55382</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>290000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>25598</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>12034</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>729</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>88478</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>15590</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>24332</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>665620</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2">
+        <v>12750</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="2">
         <v>67</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>2899955</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1724,13 +2042,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1762,7 +2080,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1774,13 +2092,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>140060</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1816,13 +2134,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1">
         <v>944.584</v>
@@ -1831,7 +2149,7 @@
         <v>15.88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1">
         <v>440999.82</v>
@@ -1842,13 +2160,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>944.584</v>
@@ -1857,7 +2175,7 @@
         <v>15.88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2">
         <v>440999.82</v>
@@ -1868,13 +2186,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
         <v>250.627</v>
@@ -1883,7 +2201,7 @@
         <v>59.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2">
         <v>439306.02</v>
@@ -1894,13 +2212,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>63.44</v>
@@ -1909,7 +2227,7 @@
         <v>5308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2">
         <v>9900141.89</v>
@@ -1920,13 +2238,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>14781</v>
@@ -1935,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2">
         <v>147810</v>
@@ -1946,13 +2264,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2">
         <v>219.907</v>
@@ -1961,7 +2279,7 @@
         <v>22.33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2">
         <v>144369.39</v>
@@ -1972,13 +2290,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2">
         <v>151.42</v>
@@ -1987,7 +2305,7 @@
         <v>20.66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2">
         <v>91973.11</v>

--- a/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
+++ b/legislator/property/output/normal/許智傑_2012-04-27_財產申報表_tmp1dd71.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -243,25 +243,31 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>Asianimprovement</t>
   </si>
   <si>
+    <t>ShenChina</t>
+  </si>
+  <si>
+    <t>亞太成長基金</t>
+  </si>
+  <si>
+    <t>蘭袒互利歐洲</t>
+  </si>
+  <si>
+    <t>富達新興市場</t>
+  </si>
+  <si>
     <t>大眾</t>
   </si>
   <si>
-    <t>ShenChina</t>
-  </si>
-  <si>
-    <t>亞太成長基金</t>
-  </si>
-  <si>
-    <t>蘭袒互利歐洲</t>
-  </si>
-  <si>
-    <t>富達新興市場</t>
-  </si>
-  <si>
     <t>元大</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
 </sst>
 </file>
@@ -2126,47 +2132,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1">
-        <v>944.584</v>
-      </c>
-      <c r="F1" s="1">
-        <v>15.88</v>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="1">
-        <v>440999.82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>944.584</v>
@@ -2180,19 +2207,40 @@
       <c r="H2" s="2">
         <v>440999.82</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>250.627</v>
@@ -2206,8 +2254,29 @@
       <c r="H3" s="2">
         <v>439306.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>87</v>
       </c>
@@ -2218,7 +2287,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>63.44</v>
@@ -2232,8 +2301,29 @@
       <c r="H4" s="2">
         <v>9900141.89</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>88</v>
       </c>
@@ -2244,7 +2334,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
         <v>14781</v>
@@ -2258,8 +2348,29 @@
       <c r="H5" s="2">
         <v>147810</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>89</v>
       </c>
@@ -2270,7 +2381,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2">
         <v>219.907</v>
@@ -2284,8 +2395,29 @@
       <c r="H6" s="2">
         <v>144369.39</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>90</v>
       </c>
@@ -2296,7 +2428,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2">
         <v>151.42</v>
@@ -2309,6 +2441,27 @@
       </c>
       <c r="H7" s="2">
         <v>91973.11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
